--- a/exe/YesOrNo_Data/StreamingAssets/Data/Excels/Choose.xlsx
+++ b/exe/YesOrNo_Data/StreamingAssets/Data/Excels/Choose.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\YesOrNo\Assets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\YesOrNo\Project\Assets\StreamingAssets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497B61A7-8AF9-4866-837C-D652FC11415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6150961C-254B-4BC0-B97B-267212D43045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Choose" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -325,658 +322,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1">
-            <v>1001</v>
-          </cell>
-          <cell r="B1">
-            <v>2001</v>
-          </cell>
-          <cell r="C1">
-            <v>3002</v>
-          </cell>
-          <cell r="D1">
-            <v>4002</v>
-          </cell>
-          <cell r="E1">
-            <v>5001</v>
-          </cell>
-          <cell r="F1">
-            <v>6001</v>
-          </cell>
-          <cell r="G1">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="G2">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>6003</v>
-          </cell>
-          <cell r="G3">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>7003</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>5003</v>
-          </cell>
-          <cell r="F5">
-            <v>6001</v>
-          </cell>
-          <cell r="G5">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>6003</v>
-          </cell>
-          <cell r="G7">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>7003</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>4005</v>
-          </cell>
-          <cell r="E9">
-            <v>5002</v>
-          </cell>
-          <cell r="F9">
-            <v>6002</v>
-          </cell>
-          <cell r="G9">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>6004</v>
-          </cell>
-          <cell r="G11">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>5004</v>
-          </cell>
-          <cell r="F13">
-            <v>6002</v>
-          </cell>
-          <cell r="G13">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>6004</v>
-          </cell>
-          <cell r="G15">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="G16">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>3004</v>
-          </cell>
-          <cell r="D17">
-            <v>4002</v>
-          </cell>
-          <cell r="E17">
-            <v>5001</v>
-          </cell>
-          <cell r="F17">
-            <v>6001</v>
-          </cell>
-          <cell r="G17">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="G18">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>6003</v>
-          </cell>
-          <cell r="G19">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="G20">
-            <v>7003</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>5003</v>
-          </cell>
-          <cell r="F21">
-            <v>6001</v>
-          </cell>
-          <cell r="G21">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="G22">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>6003</v>
-          </cell>
-          <cell r="G23">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="G24">
-            <v>7003</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>4005</v>
-          </cell>
-          <cell r="E25">
-            <v>5002</v>
-          </cell>
-          <cell r="F25">
-            <v>6002</v>
-          </cell>
-          <cell r="G25">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="G26">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>6004</v>
-          </cell>
-          <cell r="G27">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="G28">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>5004</v>
-          </cell>
-          <cell r="F29">
-            <v>6002</v>
-          </cell>
-          <cell r="G29">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="G30">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>6004</v>
-          </cell>
-          <cell r="G31">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="G32">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>3003</v>
-          </cell>
-          <cell r="D33">
-            <v>4002</v>
-          </cell>
-          <cell r="E33">
-            <v>5001</v>
-          </cell>
-          <cell r="F33">
-            <v>6001</v>
-          </cell>
-          <cell r="G33">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="G34">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35">
-            <v>6003</v>
-          </cell>
-          <cell r="G35">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="G36">
-            <v>7003</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37">
-            <v>5003</v>
-          </cell>
-          <cell r="F37">
-            <v>6001</v>
-          </cell>
-          <cell r="G37">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="G38">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39">
-            <v>6003</v>
-          </cell>
-          <cell r="G39">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="G40">
-            <v>7003</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41">
-            <v>4005</v>
-          </cell>
-          <cell r="E41">
-            <v>5002</v>
-          </cell>
-          <cell r="F41">
-            <v>6002</v>
-          </cell>
-          <cell r="G41">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="G42">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>6004</v>
-          </cell>
-          <cell r="G43">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="G44">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="E45">
-            <v>5004</v>
-          </cell>
-          <cell r="F45">
-            <v>6002</v>
-          </cell>
-          <cell r="G45">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="G46">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="F47">
-            <v>6004</v>
-          </cell>
-          <cell r="G47">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="G48">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>2002</v>
-          </cell>
-          <cell r="C49">
-            <v>3001</v>
-          </cell>
-          <cell r="D49">
-            <v>4003</v>
-          </cell>
-          <cell r="E49">
-            <v>5001</v>
-          </cell>
-          <cell r="F49">
-            <v>6001</v>
-          </cell>
-          <cell r="G49">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="G50">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="F51">
-            <v>6003</v>
-          </cell>
-          <cell r="G51">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="G52">
-            <v>7003</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="E53">
-            <v>5006</v>
-          </cell>
-          <cell r="F53">
-            <v>6001</v>
-          </cell>
-          <cell r="G53">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="G54">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="F55">
-            <v>6005</v>
-          </cell>
-          <cell r="G55">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="G56">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57">
-            <v>4005</v>
-          </cell>
-          <cell r="E57">
-            <v>5002</v>
-          </cell>
-          <cell r="F57">
-            <v>6002</v>
-          </cell>
-          <cell r="G57">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="G58">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="F59">
-            <v>6004</v>
-          </cell>
-          <cell r="G59">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="G60">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="E61">
-            <v>5004</v>
-          </cell>
-          <cell r="F61">
-            <v>6002</v>
-          </cell>
-          <cell r="G61">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="G62">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="F63">
-            <v>6004</v>
-          </cell>
-          <cell r="G63">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="G64">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>3005</v>
-          </cell>
-          <cell r="D65">
-            <v>4001</v>
-          </cell>
-          <cell r="E65">
-            <v>5001</v>
-          </cell>
-          <cell r="F65">
-            <v>6001</v>
-          </cell>
-          <cell r="G65">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="G66">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="F67">
-            <v>6003</v>
-          </cell>
-          <cell r="G67">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="G68">
-            <v>7003</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="E69">
-            <v>5006</v>
-          </cell>
-          <cell r="F69">
-            <v>6001</v>
-          </cell>
-          <cell r="G69">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="G70">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="F71">
-            <v>6005</v>
-          </cell>
-          <cell r="G71">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="G72">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73">
-            <v>4004</v>
-          </cell>
-          <cell r="E73">
-            <v>5002</v>
-          </cell>
-          <cell r="F73">
-            <v>6002</v>
-          </cell>
-          <cell r="G73">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="G74">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="F75">
-            <v>6004</v>
-          </cell>
-          <cell r="G75">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="G76">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="E77">
-            <v>5005</v>
-          </cell>
-          <cell r="F77">
-            <v>6002</v>
-          </cell>
-          <cell r="G77">
-            <v>7001</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="G78">
-            <v>7004</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="F79">
-            <v>6004</v>
-          </cell>
-          <cell r="G79">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="G80">
-            <v>7004</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1239,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1360,7 +705,7 @@
         <v>42</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
@@ -1389,7 +734,7 @@
         <v>47</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1412,7 +757,7 @@
         <v>50</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
@@ -1441,7 +786,7 @@
         <v>53</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1464,7 +809,7 @@
         <v>56</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
         <v>41</v>
@@ -1493,7 +838,7 @@
         <v>59</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
         <v>37</v>

--- a/exe/YesOrNo_Data/StreamingAssets/Data/Excels/Choose.xlsx
+++ b/exe/YesOrNo_Data/StreamingAssets/Data/Excels/Choose.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\YesOrNo\Project\Assets\StreamingAssets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\YesOrNo\Assets\StreamingAssets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6150961C-254B-4BC0-B97B-267212D43045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD95380-6398-4294-AAC7-509174D94227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6036" yWindow="3828" windowWidth="22848" windowHeight="5760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Choose" sheetId="1" r:id="rId1"/>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
